--- a/src/api/data/团队.xlsx
+++ b/src/api/data/团队.xlsx
@@ -43,8 +43,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是一段演示文案。无论学历高低、工作时间长短，若失去奋斗为本、长期艰苦创业的斗志斗魂、失去打拼干事创
-                                            业的危机感紧迫感责任感、失去自动自发的内驱力，就会不进则退。</t>
+    <t>这是一段演示文案。无论学历高低、工作时间长短，若失去奋斗为本、长期艰苦创业的斗志斗魂、失去打拼干事创业的危机感紧迫感责任感、失去自动自发的内驱力，就会不进则退。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1358,7 +1357,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/api/data/团队.xlsx
+++ b/src/api/data/团队.xlsx
@@ -1,77 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\hongsheng3\src\api\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="中文" sheetId="1" r:id="rId1"/>
-    <sheet name="繁体" sheetId="2" r:id="rId2"/>
-    <sheet name="英文" sheetId="3" r:id="rId3"/>
+    <sheet name="中文" sheetId="1" r:id="rId4"/>
+    <sheet name="繁体" sheetId="2" r:id="rId5"/>
+    <sheet name="英文" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>intro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>某女生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>某某职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>这是一段演示文案。无论学历高低、工作时间长短，若失去奋斗为本、长期艰苦创业的斗志斗魂、失去打拼干事创业的危机感紧迫感责任感、失去自动自发的内驱力，就会不进则退。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,6 +73,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -140,113 +138,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -372,7 +317,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -381,7 +326,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -390,7 +335,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -464,7 +409,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -472,7 +417,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -491,7 +436,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -521,7 +466,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -547,7 +492,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -573,7 +518,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -599,7 +544,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -625,7 +570,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -651,7 +596,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -677,7 +622,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -703,7 +648,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,7 +674,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -742,15 +687,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -765,7 +704,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -773,7 +712,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -792,7 +731,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -818,7 +757,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -844,7 +783,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -870,7 +809,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -896,7 +835,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -922,7 +861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -948,7 +887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -974,7 +913,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1000,7 +939,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1026,7 +965,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1039,15 +978,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1061,7 +994,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1080,7 +1013,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,7 +1043,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,7 +1069,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,7 +1095,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,7 +1121,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,7 +1147,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1240,7 +1173,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1266,7 +1199,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,7 +1225,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1318,7 +1251,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1331,161 +1264,153 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="254" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="14.55" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="198.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="198.6" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+    <row r="3" ht="14.4" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" ht="14.4" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" ht="14.4" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" ht="14.4" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" ht="14.4" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" ht="12" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" ht="12" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" ht="12" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" ht="12" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" ht="12" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" ht="12" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" ht="12" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" ht="12" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" ht="12" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" ht="12" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" ht="12" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1493,22 +1418,142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="10" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="5" customWidth="1"/>
+    <col min="4" max="256" width="16.3516" style="5" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetData>
+    <row r="1" ht="14.55" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="198.6" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" ht="14.4" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" ht="14.4" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" ht="14.4" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" ht="14.4" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" ht="12" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" ht="12" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" ht="12" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" ht="12" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" ht="12" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" ht="12" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" ht="12" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" ht="12" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" ht="12" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" ht="12" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" ht="12" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1516,22 +1561,142 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="10" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="6" customWidth="1"/>
+    <col min="4" max="256" width="16.3516" style="6" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetData>
+    <row r="1" ht="14.55" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="198.6" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" ht="14.4" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" ht="14.4" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" ht="14.4" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" ht="14.4" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" ht="12" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" ht="12" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" ht="12" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" ht="12" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" ht="12" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" ht="12" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" ht="12" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" ht="12" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" ht="12" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" ht="12" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" ht="12" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/api/data/团队.xlsx
+++ b/src/api/data/团队.xlsx
@@ -1,69 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15960" windowHeight="18090"/>
   </bookViews>
   <sheets>
-    <sheet name="中文" sheetId="1" r:id="rId4"/>
-    <sheet name="繁体" sheetId="2" r:id="rId5"/>
-    <sheet name="英文" sheetId="3" r:id="rId6"/>
+    <sheet name="中文" sheetId="1" r:id="rId1"/>
+    <sheet name="繁体" sheetId="2" r:id="rId2"/>
+    <sheet name="英文" sheetId="3" r:id="rId3"/>
+    <sheet name="用于此页面" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某某职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一段演示文案。无论学历高低、工作时间长短，若失去奋斗为本、长期艰苦创业的斗志斗魂、失去打拼干事创业的危机感紧迫感责任感、失去自动自发的内驱力，就会不进则退。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>某女生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>某某职位</t>
-  </si>
-  <si>
-    <t>这是一段演示文案。无论学历高低、工作时间长短，若失去奋斗为本、长期艰苦创业的斗志斗魂、失去打拼干事创业的危机感紧迫感责任感、失去自动自发的内驱力，就会不进则退。</t>
+    <t xml:space="preserve">某女生     lucky:请根据用于此页面的文字显示做对应的文案，同时需要将翻译写进去，有不明白请及时回应我。           </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,12 +86,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -138,60 +145,159 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>207924</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13009524" cy="5676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -317,7 +423,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -326,7 +432,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -335,7 +441,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -409,7 +515,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -417,7 +523,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -436,7 +542,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -466,7 +572,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -492,7 +598,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -518,7 +624,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -544,7 +650,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -570,7 +676,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -596,7 +702,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -622,7 +728,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -648,7 +754,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -674,7 +780,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -687,9 +793,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -704,7 +816,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -712,7 +824,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -731,7 +843,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -757,7 +869,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -783,7 +895,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -809,7 +921,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -835,7 +947,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -861,7 +973,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -887,7 +999,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -913,7 +1025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -939,7 +1051,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -965,7 +1077,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -978,9 +1090,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -994,7 +1112,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1013,7 +1131,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,7 +1161,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1069,7 +1187,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1095,7 +1213,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1121,7 +1239,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1147,7 +1265,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,7 +1291,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,7 +1317,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1225,7 +1343,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1251,7 +1369,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1264,153 +1382,161 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:IT21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="254" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="198.6" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:3" ht="198.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" ht="12" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" ht="12" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" ht="12" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" ht="12" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" ht="12" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" ht="12" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" ht="12" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" ht="12" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" ht="12" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" ht="12" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" ht="12" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1418,142 +1544,145 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="5" customWidth="1"/>
-    <col min="4" max="256" width="16.3516" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="198.6" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:3" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" ht="14.4" customHeight="1">
+    </row>
+    <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" ht="12" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" ht="12" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" ht="12" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" ht="12" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" ht="12" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" ht="12" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" ht="12" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" ht="12" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" ht="12" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" ht="12" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" ht="12" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1561,144 +1690,162 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="6" customWidth="1"/>
-    <col min="4" max="256" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="198.6" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:3" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" ht="14.4" customHeight="1">
+    </row>
+    <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" ht="12" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" ht="12" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" ht="12" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" ht="12" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" ht="12" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" ht="12" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" ht="12" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" ht="12" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" ht="12" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" ht="12" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" ht="12" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/api/data/团队.xlsx
+++ b/src/api/data/团队.xlsx
@@ -15,14 +15,13 @@
     <sheet name="中文" sheetId="1" r:id="rId1"/>
     <sheet name="繁体" sheetId="2" r:id="rId2"/>
     <sheet name="英文" sheetId="3" r:id="rId3"/>
-    <sheet name="用于此页面" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,19 +35,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>某某职位</t>
+    <t xml:space="preserve">李先生         </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是一段演示文案。无论学历高低、工作时间长短，若失去奋斗为本、长期艰苦创业的斗志斗魂、失去打拼干事创业的危机感紧迫感责任感、失去自动自发的内驱力，就会不进则退。</t>
+    <t>李先生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>某女生</t>
+    <t>Mr. Li</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">某女生     lucky:请根据用于此页面的文字显示做对应的文案，同时需要将翻译写进去，有不明白请及时回应我。           </t>
+    <t>销售工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Engineer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷售工程師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业知识的学习以及多年的工作实践，使我积累了丰富的工作经验，并取得了优秀的销售业绩.逻辑思维敏捷清晰，为人处事成熟稳重，具有强烈的创新意识,有良好的全局观，高度的工作责任心，良好的团队合作能力、执行力与表达能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專業知識的學習以及多年的工作實踐，使我積累了豐富的工作經驗，並取得了優秀的銷售業績.邏輯思維敏捷清晰，為人處事成熟穩重，具有强烈的創新意識，有良好的全域觀，高度的工作責任心，良好的團隊合作能力、執行力與表達能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The study of professional knowledge and many years of work practice, I have accumulated rich experience and achieved excellent sales performance. Logical thinking is quick and clear,mature and stable for people, with a strong sense of innovation,
+Have a good overall outlook, high sense of responsibility, good teamwork, execution and expression.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,49 +271,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>207924</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>8815</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="13009524" cy="5676190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1429,13 +1406,13 @@
     </row>
     <row r="2" spans="1:3" ht="198.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1536,7 +1513,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1551,7 +1528,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:C21"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1573,15 +1550,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1697,14 +1674,14 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
     <col min="4" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1719,15 +1696,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1833,19 +1810,4 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>